--- a/Employee_Reports21/Kasansula Francis Kiwanuka Q0527.xlsx
+++ b/Employee_Reports21/Kasansula Francis Kiwanuka Q0527.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -740,11 +740,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -787,11 +787,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -833,11 +833,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -869,11 +869,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
